--- a/BinaryDefinitions.xlsx
+++ b/BinaryDefinitions.xlsx
@@ -1,12 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keule\Documents\GitHub\F23P1-M013-Group11\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC7CA62-8FFF-41A9-84EA-70153EA595DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -235,25 +255,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -263,67 +284,52 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -513,20 +519,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,1027 +548,1027 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="str">
-        <f t="shared" ref="B2:B17" si="1">DEC2BIN(C2,5)</f>
+      <c r="B2" s="1" t="str">
+        <f t="shared" ref="B2:B17" si="0">DEC2BIN(C2,5)</f>
         <v>00000</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="B3" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>00001</v>
       </c>
-      <c r="C3" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="B4" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>00010</v>
       </c>
-      <c r="C4" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="B5" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>00011</v>
       </c>
-      <c r="C5" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="B6" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>00100</v>
       </c>
-      <c r="C6" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="B7" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>00101</v>
       </c>
-      <c r="C7" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="B8" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>00110</v>
       </c>
-      <c r="C8" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="B9" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>00111</v>
       </c>
-      <c r="C9" s="3">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="B10" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>01000</v>
       </c>
-      <c r="C10" s="3">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="B11" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>01001</v>
       </c>
-      <c r="C11" s="3">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="C11" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="B12" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>01010</v>
       </c>
-      <c r="C12" s="3">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="B13" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>01011</v>
       </c>
-      <c r="C13" s="3">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="C13" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="B14" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>01100</v>
       </c>
-      <c r="C14" s="3">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="C14" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="B15" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>01101</v>
       </c>
-      <c r="C15" s="3">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="C15" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="B16" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>01110</v>
       </c>
-      <c r="C16" s="3">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="B17" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>01111</v>
       </c>
-      <c r="C17" s="3">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="C17" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4" t="str">
-        <f t="shared" ref="B18:B81" si="2">DEC2BIN(C18,7)</f>
+      <c r="B18" s="1" t="str">
+        <f t="shared" ref="B18:B81" si="1">DEC2BIN(C18,7)</f>
         <v>1000000</v>
       </c>
-      <c r="C18" s="3">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="C18" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B19" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1000001</v>
       </c>
-      <c r="C19" s="3">
-        <v>65.0</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="C19" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B20" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1000010</v>
       </c>
-      <c r="C20" s="3">
-        <v>66.0</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="C20" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B21" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1000011</v>
       </c>
-      <c r="C21" s="3">
-        <v>67.0</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="C21" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B22" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1000100</v>
       </c>
-      <c r="C22" s="3">
-        <v>68.0</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="C22" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B23" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1000101</v>
       </c>
-      <c r="C23" s="3">
-        <v>69.0</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="C23" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B24" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1000110</v>
       </c>
-      <c r="C24" s="3">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="C24" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B25" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1000111</v>
       </c>
-      <c r="C25" s="3">
-        <v>71.0</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="C25" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B26" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1001000</v>
       </c>
-      <c r="C26" s="3">
-        <v>72.0</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="C26" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B27" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1001001</v>
       </c>
-      <c r="C27" s="3">
-        <v>73.0</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="C27" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B28" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1001010</v>
       </c>
-      <c r="C28" s="3">
-        <v>74.0</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="C28" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B29" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1001011</v>
       </c>
-      <c r="C29" s="3">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="C29" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B30" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1001100</v>
       </c>
-      <c r="C30" s="3">
-        <v>76.0</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="C30" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B31" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1001101</v>
       </c>
-      <c r="C31" s="3">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="C31" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B32" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1001110</v>
       </c>
-      <c r="C32" s="3">
-        <v>78.0</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="C32" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B33" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1001111</v>
       </c>
-      <c r="C33" s="3">
-        <v>79.0</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="C33" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B34" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1010000</v>
       </c>
-      <c r="C34" s="3">
-        <v>80.0</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="C34" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B35" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1010001</v>
       </c>
-      <c r="C35" s="3">
-        <v>81.0</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="C35" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B36" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1010010</v>
       </c>
-      <c r="C36" s="3">
-        <v>82.0</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="C36" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B37" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1010011</v>
       </c>
-      <c r="C37" s="3">
-        <v>83.0</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="C37" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B38" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1010100</v>
       </c>
-      <c r="C38" s="3">
-        <v>84.0</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="C38" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B39" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1010101</v>
       </c>
-      <c r="C39" s="3">
-        <v>85.0</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="C39" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B40" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1010110</v>
       </c>
-      <c r="C40" s="3">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="C40" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B41" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1010111</v>
       </c>
-      <c r="C41" s="3">
-        <v>87.0</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="C41" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B42" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1011000</v>
       </c>
-      <c r="C42" s="3">
-        <v>88.0</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="C42" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B43" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1011001</v>
       </c>
-      <c r="C43" s="3">
-        <v>89.0</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="C43" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B44" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1011010</v>
       </c>
-      <c r="C44" s="3">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="C44" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B45" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1011011</v>
       </c>
-      <c r="C45" s="3">
-        <v>91.0</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="C45" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B46" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1011100</v>
       </c>
-      <c r="C46" s="3">
-        <v>92.0</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="C46" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B47" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1011101</v>
       </c>
-      <c r="C47" s="3">
-        <v>93.0</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="C47" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B48" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1011110</v>
       </c>
-      <c r="C48" s="3">
-        <v>94.0</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="C48" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B49" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1011111</v>
       </c>
-      <c r="C49" s="3">
-        <v>95.0</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="C49" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B50" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1100000</v>
       </c>
-      <c r="C50" s="3">
-        <v>96.0</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="C50" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B51" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1100001</v>
       </c>
-      <c r="C51" s="3">
-        <v>97.0</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="C51" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B52" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1100010</v>
       </c>
-      <c r="C52" s="3">
-        <v>98.0</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="C52" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B53" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1100011</v>
       </c>
-      <c r="C53" s="3">
-        <v>99.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="B54" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="C53" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1100100</v>
       </c>
-      <c r="C54" s="3">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B55" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="C54" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1100101</v>
       </c>
-      <c r="C55" s="3">
-        <v>101.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="B56" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="C55" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>2</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1100110</v>
       </c>
-      <c r="C56" s="3">
-        <v>102.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="B57" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="C56" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>3</v>
+      </c>
+      <c r="B57" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1100111</v>
       </c>
-      <c r="C57" s="3">
-        <v>103.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="B58" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="C57" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>4</v>
+      </c>
+      <c r="B58" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1101000</v>
       </c>
-      <c r="C58" s="3">
-        <v>104.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B59" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="C58" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1101001</v>
       </c>
-      <c r="C59" s="3">
-        <v>105.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="B60" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="C59" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1101010</v>
       </c>
-      <c r="C60" s="3">
-        <v>106.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="B61" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="C60" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>7</v>
+      </c>
+      <c r="B61" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1101011</v>
       </c>
-      <c r="C61" s="3">
-        <v>107.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="B62" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="C61" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>8</v>
+      </c>
+      <c r="B62" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1101100</v>
       </c>
-      <c r="C62" s="3">
-        <v>108.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="5">
-        <v>9.0</v>
-      </c>
-      <c r="B63" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="C62" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>9</v>
+      </c>
+      <c r="B63" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1101101</v>
       </c>
-      <c r="C63" s="3">
-        <v>109.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="6" t="s">
+      <c r="C63" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B64" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B64" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1101110</v>
       </c>
-      <c r="C64" s="3">
-        <v>110.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="6" t="s">
+      <c r="C64" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B65" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B65" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1101111</v>
       </c>
-      <c r="C65" s="3">
-        <v>111.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="7" t="s">
+      <c r="C65" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B66" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B66" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1110000</v>
       </c>
-      <c r="C66" s="3">
-        <v>112.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="7" t="s">
+      <c r="C66" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B67" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1110001</v>
       </c>
-      <c r="C67" s="3">
-        <v>113.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="8" t="s">
+      <c r="C67" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B68" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B68" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1110010</v>
       </c>
-      <c r="C68" s="3">
-        <v>114.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="8" t="s">
+      <c r="C68" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B69" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B69" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1110011</v>
       </c>
-      <c r="C69" s="3">
-        <v>115.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="7" t="s">
+      <c r="C69" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B70" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B70" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1110100</v>
       </c>
-      <c r="C70" s="3">
-        <v>116.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="7" t="s">
+      <c r="C70" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B71" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1110101</v>
       </c>
-      <c r="C71" s="3">
-        <v>117.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="7" t="s">
+      <c r="C71" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B72" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1110110</v>
       </c>
-      <c r="C72" s="3">
-        <v>118.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="7" t="s">
+      <c r="C72" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B73" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1110111</v>
       </c>
-      <c r="C73" s="3">
-        <v>119.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="7" t="s">
+      <c r="C73" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B74" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1111000</v>
       </c>
-      <c r="C74" s="3">
-        <v>120.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="7" t="s">
+      <c r="C74" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B75" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1111001</v>
       </c>
-      <c r="C75" s="3">
-        <v>121.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="7" t="s">
+      <c r="C75" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B76" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B76" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1111010</v>
       </c>
-      <c r="C76" s="3">
-        <v>122.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="7" t="s">
+      <c r="C76" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B77" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B77" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1111011</v>
       </c>
-      <c r="C77" s="3">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="7" t="s">
+      <c r="C77" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B78" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B78" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1111100</v>
       </c>
-      <c r="C78" s="3">
-        <v>124.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="7" t="s">
+      <c r="C78" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B79" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B79" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1111101</v>
       </c>
-      <c r="C79" s="3">
-        <v>125.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="7" t="s">
+      <c r="C79" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B80" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B80" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1111110</v>
       </c>
-      <c r="C80" s="3">
-        <v>126.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="7" t="s">
+      <c r="C80" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B81" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B81" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1111111</v>
       </c>
-      <c r="C81" s="3">
-        <v>127.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="6"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="3"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="6"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="3"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="6"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="3"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="6"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="3"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="6"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="3"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="10"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="3"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="11"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="3"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="3"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="3"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="3"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="3"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="3"/>
+      <c r="C81" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BinaryDefinitions.xlsx
+++ b/BinaryDefinitions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keule\Documents\GitHub\F23P1-M013-Group11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC7CA62-8FFF-41A9-84EA-70153EA595DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A1F73F-9D47-4679-B9EE-5D3915FB9220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="73">
   <si>
     <t>Characters</t>
   </si>
@@ -231,12 +231,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>th</t>
-  </si>
-  <si>
-    <t>he</t>
-  </si>
-  <si>
     <t>in</t>
   </si>
   <si>
@@ -250,13 +244,19 @@
   </si>
   <si>
     <t>nd</t>
+  </si>
+  <si>
+    <t>::shortcut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -277,6 +277,18 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -299,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -311,6 +323,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,8 +545,8 @@
   </sheetPr>
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -693,7 +707,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1" t="str">
@@ -1425,8 +1439,8 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>66</v>
+      <c r="A75" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="B75" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1437,8 +1451,8 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>67</v>
+      <c r="A76" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B76" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1450,7 +1464,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B77" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1462,7 +1476,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B78" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1474,7 +1488,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B79" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1486,7 +1500,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B80" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1498,7 +1512,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B81" s="1" t="str">
         <f t="shared" si="1"/>
